--- a/xlsx/黑金_intext.xlsx
+++ b/xlsx/黑金_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%87%91_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>黑金 (電影)</t>
+    <t>黑金 (电影)</t>
   </si>
   <si>
     <t>政策_政策_政治_黑金</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5</t>
   </si>
   <si>
-    <t>鐵</t>
+    <t>铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
